--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>147136</v>
+        <v>147490.8875300625</v>
       </c>
       <c r="C2">
-        <v>241604</v>
+        <v>241978.8674148761</v>
       </c>
       <c r="D2">
-        <v>300542</v>
+        <v>301835.2186333269</v>
       </c>
       <c r="E2">
-        <v>329680</v>
+        <v>330578.5391073826</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>173705</v>
+        <v>174804.3486792527</v>
       </c>
       <c r="C3">
-        <v>285360</v>
+        <v>287086.5081288551</v>
       </c>
       <c r="D3">
-        <v>353535</v>
+        <v>355424.988341677</v>
       </c>
       <c r="E3">
-        <v>390402</v>
+        <v>392099.6474527332</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>150969</v>
+        <v>150924.3138020896</v>
       </c>
       <c r="C4">
-        <v>261562</v>
+        <v>262448.1308437714</v>
       </c>
       <c r="D4">
-        <v>333222</v>
+        <v>334147.6658457189</v>
       </c>
       <c r="E4">
-        <v>368900</v>
+        <v>370244.3383432403</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>114310</v>
+        <v>114969.0729743874</v>
       </c>
       <c r="C5">
-        <v>189864</v>
+        <v>190638.6008556033</v>
       </c>
       <c r="D5">
-        <v>233128</v>
+        <v>234167.2011281125</v>
       </c>
       <c r="E5">
-        <v>259200</v>
+        <v>259873.451328368</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>95238</v>
+        <v>96060.53792653907</v>
       </c>
       <c r="C6">
-        <v>162448</v>
+        <v>163154.6752658826</v>
       </c>
       <c r="D6">
-        <v>204776</v>
+        <v>205673.9356354423</v>
       </c>
       <c r="E6">
-        <v>225638</v>
+        <v>226086.1117384583</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>11205</v>
+        <v>11262.14893018374</v>
       </c>
       <c r="C7">
-        <v>18045</v>
+        <v>18119.64078334402</v>
       </c>
       <c r="D7">
-        <v>22185</v>
+        <v>22249.73253384406</v>
       </c>
       <c r="E7">
-        <v>24015</v>
+        <v>24086.01157175547</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>291342</v>
+        <v>293532.279030501</v>
       </c>
       <c r="C8">
-        <v>664144</v>
+        <v>665284.5965777595</v>
       </c>
       <c r="D8">
-        <v>974432</v>
+        <v>972570.9458413635</v>
       </c>
       <c r="E8">
-        <v>1204049</v>
+        <v>1206414.651504654</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>136990</v>
+        <v>137103.0605244655</v>
       </c>
       <c r="C9">
-        <v>230391</v>
+        <v>231546.9707504895</v>
       </c>
       <c r="D9">
-        <v>290872</v>
+        <v>292692.9177647905</v>
       </c>
       <c r="E9">
-        <v>322713</v>
+        <v>324225.4327157084</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>69078</v>
+        <v>69313.14876375627</v>
       </c>
       <c r="C10">
-        <v>107672</v>
+        <v>108016.2149676386</v>
       </c>
       <c r="D10">
-        <v>131283</v>
+        <v>131644.8876273321</v>
       </c>
       <c r="E10">
-        <v>140610</v>
+        <v>141129.7735666916</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>12528</v>
+        <v>12611.77613632914</v>
       </c>
       <c r="C11">
-        <v>18675</v>
+        <v>18734.23212412782</v>
       </c>
       <c r="D11">
-        <v>22545</v>
+        <v>22628.74148001703</v>
       </c>
       <c r="E11">
-        <v>26128</v>
+        <v>26193.78962240853</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>28041</v>
+        <v>28104.18526028926</v>
       </c>
       <c r="C12">
-        <v>47560</v>
+        <v>47709.14423609608</v>
       </c>
       <c r="D12">
-        <v>58960</v>
+        <v>59199.18084798937</v>
       </c>
       <c r="E12">
-        <v>62439</v>
+        <v>62617.99579466137</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>37975</v>
+        <v>37939.3782314936</v>
       </c>
       <c r="C13">
-        <v>59280</v>
+        <v>59401.61980814132</v>
       </c>
       <c r="D13">
-        <v>73353</v>
+        <v>73591.65194541495</v>
       </c>
       <c r="E13">
-        <v>79723</v>
+        <v>79937.99191583532</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_OV.xlsx
@@ -391,10 +391,10 @@
         <v>147490.8875300625</v>
       </c>
       <c r="C2">
-        <v>241978.8674148761</v>
+        <v>241978.8674148764</v>
       </c>
       <c r="D2">
-        <v>301835.2186333269</v>
+        <v>301835.2186333268</v>
       </c>
       <c r="E2">
         <v>330578.5391073826</v>
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>174804.3486792527</v>
+        <v>174804.3486792526</v>
       </c>
       <c r="C3">
-        <v>287086.5081288551</v>
+        <v>287086.5081288549</v>
       </c>
       <c r="D3">
-        <v>355424.988341677</v>
+        <v>355424.9883416771</v>
       </c>
       <c r="E3">
-        <v>392099.6474527332</v>
+        <v>392099.6474527335</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>150924.3138020896</v>
+        <v>150924.3138020894</v>
       </c>
       <c r="C4">
-        <v>262448.1308437714</v>
+        <v>262448.1308437716</v>
       </c>
       <c r="D4">
-        <v>334147.6658457189</v>
+        <v>334147.665845719</v>
       </c>
       <c r="E4">
-        <v>370244.3383432403</v>
+        <v>370244.3383432404</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -442,10 +442,10 @@
         <v>114969.0729743874</v>
       </c>
       <c r="C5">
-        <v>190638.6008556033</v>
+        <v>190638.6008556032</v>
       </c>
       <c r="D5">
-        <v>234167.2011281125</v>
+        <v>234167.2011281126</v>
       </c>
       <c r="E5">
         <v>259873.451328368</v>
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>96060.53792653907</v>
+        <v>96060.53792653914</v>
       </c>
       <c r="C6">
-        <v>163154.6752658826</v>
+        <v>163154.6752658827</v>
       </c>
       <c r="D6">
-        <v>205673.9356354423</v>
+        <v>205673.9356354421</v>
       </c>
       <c r="E6">
-        <v>226086.1117384583</v>
+        <v>226086.1117384584</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>293532.279030501</v>
+        <v>293532.2790305005</v>
       </c>
       <c r="C8">
         <v>665284.5965777595</v>
       </c>
       <c r="D8">
-        <v>972570.9458413635</v>
+        <v>972570.9458413639</v>
       </c>
       <c r="E8">
         <v>1206414.651504654</v>
@@ -510,13 +510,13 @@
         <v>137103.0605244655</v>
       </c>
       <c r="C9">
-        <v>231546.9707504895</v>
+        <v>231546.9707504896</v>
       </c>
       <c r="D9">
-        <v>292692.9177647905</v>
+        <v>292692.9177647907</v>
       </c>
       <c r="E9">
-        <v>324225.4327157084</v>
+        <v>324225.4327157085</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,10 +524,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>69313.14876375627</v>
+        <v>69313.14876375633</v>
       </c>
       <c r="C10">
-        <v>108016.2149676386</v>
+        <v>108016.2149676385</v>
       </c>
       <c r="D10">
         <v>131644.8876273321</v>
@@ -544,13 +544,13 @@
         <v>12611.77613632914</v>
       </c>
       <c r="C11">
-        <v>18734.23212412782</v>
+        <v>18734.23212412783</v>
       </c>
       <c r="D11">
         <v>22628.74148001703</v>
       </c>
       <c r="E11">
-        <v>26193.78962240853</v>
+        <v>26193.78962240851</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -561,13 +561,13 @@
         <v>28104.18526028926</v>
       </c>
       <c r="C12">
-        <v>47709.14423609608</v>
+        <v>47709.14423609606</v>
       </c>
       <c r="D12">
-        <v>59199.18084798937</v>
+        <v>59199.1808479894</v>
       </c>
       <c r="E12">
-        <v>62617.99579466137</v>
+        <v>62617.99579466136</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -578,13 +578,13 @@
         <v>37939.3782314936</v>
       </c>
       <c r="C13">
-        <v>59401.61980814132</v>
+        <v>59401.61980814127</v>
       </c>
       <c r="D13">
-        <v>73591.65194541495</v>
+        <v>73591.651945415</v>
       </c>
       <c r="E13">
-        <v>79937.99191583532</v>
+        <v>79937.99191583533</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>147490.8875300625</v>
+        <v>147491</v>
       </c>
       <c r="C2">
-        <v>241978.8674148764</v>
+        <v>241979</v>
       </c>
       <c r="D2">
-        <v>301835.2186333268</v>
+        <v>301835</v>
       </c>
       <c r="E2">
-        <v>330578.5391073826</v>
+        <v>330579</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>174804.3486792526</v>
+        <v>174804</v>
       </c>
       <c r="C3">
-        <v>287086.5081288549</v>
+        <v>287087</v>
       </c>
       <c r="D3">
-        <v>355424.9883416771</v>
+        <v>355425</v>
       </c>
       <c r="E3">
-        <v>392099.6474527335</v>
+        <v>392100</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>150924.3138020894</v>
+        <v>150924</v>
       </c>
       <c r="C4">
-        <v>262448.1308437716</v>
+        <v>262448</v>
       </c>
       <c r="D4">
-        <v>334147.665845719</v>
+        <v>334148</v>
       </c>
       <c r="E4">
-        <v>370244.3383432404</v>
+        <v>370244</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>114969.0729743874</v>
+        <v>114969</v>
       </c>
       <c r="C5">
-        <v>190638.6008556032</v>
+        <v>190639</v>
       </c>
       <c r="D5">
-        <v>234167.2011281126</v>
+        <v>234167</v>
       </c>
       <c r="E5">
-        <v>259873.451328368</v>
+        <v>259873</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>96060.53792653914</v>
+        <v>96061</v>
       </c>
       <c r="C6">
-        <v>163154.6752658827</v>
+        <v>163155</v>
       </c>
       <c r="D6">
-        <v>205673.9356354421</v>
+        <v>205674</v>
       </c>
       <c r="E6">
-        <v>226086.1117384584</v>
+        <v>226086</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>11262.14893018374</v>
+        <v>11262</v>
       </c>
       <c r="C7">
-        <v>18119.64078334402</v>
+        <v>18120</v>
       </c>
       <c r="D7">
-        <v>22249.73253384406</v>
+        <v>22250</v>
       </c>
       <c r="E7">
-        <v>24086.01157175547</v>
+        <v>24086</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>293532.2790305005</v>
+        <v>293532</v>
       </c>
       <c r="C8">
-        <v>665284.5965777595</v>
+        <v>665285</v>
       </c>
       <c r="D8">
-        <v>972570.9458413639</v>
+        <v>972571</v>
       </c>
       <c r="E8">
-        <v>1206414.651504654</v>
+        <v>1206415</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>137103.0605244655</v>
+        <v>137103</v>
       </c>
       <c r="C9">
-        <v>231546.9707504896</v>
+        <v>231547</v>
       </c>
       <c r="D9">
-        <v>292692.9177647907</v>
+        <v>292693</v>
       </c>
       <c r="E9">
-        <v>324225.4327157085</v>
+        <v>324225</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>69313.14876375633</v>
+        <v>69313</v>
       </c>
       <c r="C10">
-        <v>108016.2149676385</v>
+        <v>108016</v>
       </c>
       <c r="D10">
-        <v>131644.8876273321</v>
+        <v>131645</v>
       </c>
       <c r="E10">
-        <v>141129.7735666916</v>
+        <v>141130</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>12611.77613632914</v>
+        <v>12612</v>
       </c>
       <c r="C11">
-        <v>18734.23212412783</v>
+        <v>18734</v>
       </c>
       <c r="D11">
-        <v>22628.74148001703</v>
+        <v>22629</v>
       </c>
       <c r="E11">
-        <v>26193.78962240851</v>
+        <v>26194</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>28104.18526028926</v>
+        <v>28104</v>
       </c>
       <c r="C12">
-        <v>47709.14423609606</v>
+        <v>47709</v>
       </c>
       <c r="D12">
-        <v>59199.1808479894</v>
+        <v>59199</v>
       </c>
       <c r="E12">
-        <v>62617.99579466136</v>
+        <v>62618</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>37939.3782314936</v>
+        <v>37939</v>
       </c>
       <c r="C13">
-        <v>59401.61980814127</v>
+        <v>59402</v>
       </c>
       <c r="D13">
-        <v>73591.651945415</v>
+        <v>73592</v>
       </c>
       <c r="E13">
-        <v>79937.99191583533</v>
+        <v>79938</v>
       </c>
     </row>
   </sheetData>
